--- a/AllValid.xlsx
+++ b/AllValid.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>ABN</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>IsoMarket</t>
-  </si>
-  <si>
-    <t>marketdataapi</t>
   </si>
   <si>
     <t>pshsnapshotvalidator</t>
@@ -518,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,13 +529,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
@@ -546,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45.75" x14ac:dyDescent="0.3">
@@ -557,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -573,7 +570,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -582,10 +579,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45.75" x14ac:dyDescent="0.3">
@@ -593,7 +590,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -602,88 +599,86 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="B9" s="11"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="C17" s="3"/>
     </row>
